--- a/src/test/resources/ExcelFiles/data_providers.xlsx
+++ b/src/test/resources/ExcelFiles/data_providers.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -38,6 +39,27 @@
   </si>
   <si>
     <t>casperwhiskey112@gmail.com</t>
+  </si>
+  <si>
+    <t>do_login</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>runmode</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>elements_present</t>
+  </si>
+  <si>
+    <t>do_sign_up</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -368,7 +390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -410,6 +432,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
